--- a/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>accuracy_score</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>mean_absolute_error</t>
+  </si>
+  <si>
+    <t>explained_variance_score</t>
+  </si>
+  <si>
+    <t>r2_score</t>
   </si>
   <si>
     <t>LogisticAT</t>
@@ -381,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +395,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,10 +408,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.3929</v>
@@ -419,10 +431,16 @@
       <c r="E2" t="n">
         <v>0.7588</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.5177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5175999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.3832</v>
@@ -435,6 +453,12 @@
       </c>
       <c r="E3" t="n">
         <v>0.8094</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4755</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>accuracy_score</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>threshold_socre</t>
+  </si>
+  <si>
+    <t>mean_squared_error</t>
   </si>
   <si>
     <t>mean_absolute_error</t>
@@ -387,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,10 +417,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>0.3929</v>
@@ -429,18 +435,21 @@
         <v>0.8956</v>
       </c>
       <c r="E2" t="n">
+        <v>0.9328</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.7588</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.5177</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.5175999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>0.3832</v>
@@ -452,12 +461,15 @@
         <v>0.8668</v>
       </c>
       <c r="E3" t="n">
+        <v>1.0142</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.8094</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.4757</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.4755</v>
       </c>
     </row>

--- a/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
@@ -38,10 +38,10 @@
     <t>r2_score</t>
   </si>
   <si>
+    <t>LogisticIT</t>
+  </si>
+  <si>
     <t>LogisticAT</t>
-  </si>
-  <si>
-    <t>LogisticIT</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3929</v>
+        <v>0.4409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3929</v>
+        <v>0.4409</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8956</v>
+        <v>0.9217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9328</v>
+        <v>0.7554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7588</v>
+        <v>0.6881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5177</v>
+        <v>0.6095</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.6094000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3832</v>
+        <v>0.4533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3832</v>
+        <v>0.4533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8668</v>
+        <v>0.9162</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0142</v>
+        <v>0.7155</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8094</v>
+        <v>0.6629</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4757</v>
+        <v>0.6303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4755</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
+++ b/features2prediction/weebit/probs_avg_ordinal_regression_evaluation.xlsx
@@ -38,10 +38,10 @@
     <t>r2_score</t>
   </si>
   <si>
+    <t>LogisticAT</t>
+  </si>
+  <si>
     <t>LogisticIT</t>
-  </si>
-  <si>
-    <t>LogisticAT</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4409</v>
+        <v>0.4588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4409</v>
+        <v>0.4588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9217</v>
+        <v>0.919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7554</v>
+        <v>0.7144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6881</v>
+        <v>0.6627</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6095</v>
+        <v>0.6308</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6304999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4533</v>
+        <v>0.3832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4533</v>
+        <v>0.3832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9162</v>
+        <v>0.9038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7155</v>
+        <v>0.8734</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6629</v>
+        <v>0.7544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6303</v>
+        <v>0.5486</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.5483</v>
       </c>
     </row>
   </sheetData>
